--- a/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
+++ b/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Scaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,9 @@
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="5" r:id="rId7"/>
+    <sheet name="7_" sheetId="10" r:id="rId8"/>
+    <sheet name="8_" sheetId="11" r:id="rId9"/>
+    <sheet name="9_" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Correct</t>
   </si>
@@ -44,24 +47,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Leeway</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>All of the given values are in base metric units, so no conversion is necessary.</t>
-  </si>
-  <si>
-    <t>Look at the equation for the critical Reynolds number. How fast would an air flow over a 3 m long plate need to be in order that the transition to turbulent flow would begin before the plate ended?  (density rho = 1.2 kg/m3, viscosity mu = 1.8 x 10^-5 kg/ms).  Answer in m/s.</t>
-  </si>
-  <si>
-    <t>Look at the plot of h and delta as a function of x (the distance past the leading edge).  Given an air flow over a plate, approximately where will *h* reach its maximum if the free stream velocity (u_infinity) is 10 m/s and the plate is 4 m long? Use the material values from the previous question.</t>
-  </si>
-  <si>
     <t>The Nusselt number looks a lot like the Biot number that we used for lumped capacitance.  What is the key difference?</t>
   </si>
   <si>
@@ -83,7 +68,7 @@
     <t>The convection coefficient in the Nusselt number can be either forced or free convection, but it is always natural convection with the Biot number</t>
   </si>
   <si>
-    <t>Yep!  Be careful about this!  The nusselt number compares convection to conduction in the fluid; the Biot number compares conduction to conduction in the solid.</t>
+    <t>Be careful about this!  The nusselt number compares convection to conduction in the fluid; the Biot number compares conduction to conduction in the solid.</t>
   </si>
 </sst>
 </file>
@@ -99,15 +84,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,16 +118,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,69 +480,82 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,41 +567,53 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,124 +625,447 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="72" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
+++ b/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB12C4-C462-4BA7-9DC5-0C895F1AD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700"/>
+    <workbookView xWindow="10200" yWindow="1905" windowWidth="17700" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Correct</t>
   </si>
@@ -69,12 +70,72 @@
   </si>
   <si>
     <t>Be careful about this!  The nusselt number compares convection to conduction in the fluid; the Biot number compares conduction to conduction in the solid.</t>
+  </si>
+  <si>
+    <t>Which is the best representation of the meaning of the Nusselt number?</t>
+  </si>
+  <si>
+    <t>A factor that describes how much more effective the heat transfer using convection than using conduction alone</t>
+  </si>
+  <si>
+    <t>A factor that describes how much of the convective heat transfer is due to conduction</t>
+  </si>
+  <si>
+    <t>A factor that describes how much of convection is due to advection vs how much is due to conduction</t>
+  </si>
+  <si>
+    <t>A factor that describes how convection could be made more effective</t>
+  </si>
+  <si>
+    <t>It's a ratio of (heat transfer with fluid movement): (heat transfer without fluid movement), given the same conditions, materials, and geometry.</t>
+  </si>
+  <si>
+    <t>A highly viscous fluid would allow fluid to move freely from outside the boundary layer to the surface and vice versa</t>
+  </si>
+  <si>
+    <t>The Nusselt number is a function of the Reynolds number (velocity*Length/viscosity).  Which of the following explain why a high Re tends to lead to a high Nu?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>A high speed flow causes fluid to move quickly from outside the boundary layer to the surface and vice versa</t>
+  </si>
+  <si>
+    <t>A high Re indicates increased turbulence, which would increase the movement of fluid from outside the boundary layer to the surface and vice versa</t>
+  </si>
+  <si>
+    <t>A high Re indicates a high level of the advection of fluid</t>
+  </si>
+  <si>
+    <t>Advection is the bulk movement of fluid, aand increased advection leads to increased convection.</t>
+  </si>
+  <si>
+    <t>A high viscocity, which lowers Re, will tend to tamp down this movement.</t>
+  </si>
+  <si>
+    <t>Turbulent flow produces higher convection efficiency for just this reason.</t>
+  </si>
+  <si>
+    <t>The Nusselt number is a function of the Prantl number (momentum diffusivity/ thermal diffusivity).  Which of the following explain why a high Pr tends to lead to a high Nu and vice versa?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>A fluid flow with a high thermal diffusivity will tend to be more uniform in temperature.</t>
+  </si>
+  <si>
+    <t>A fluid flow with a low thermal diffusivity will tend to be more uniform in temperature.</t>
+  </si>
+  <si>
+    <t>A fluid with a higher thermal diffusivity that is next to a hot surface will have high rates of heat transfer even if it is not moving.</t>
+  </si>
+  <si>
+    <t>If heat moves quickly by conduction through a fluid, then the movement of the fluid does less to enhance the heat transfer: the Nu number describes this enhancement, so it will be smaller in this case.</t>
+  </si>
+  <si>
+    <t>The Nu number is a ratio of HT with convection to HT with no convection.  If HT with no convection is already high, then this ratio will tend to be smaller.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,6 +210,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +566,7 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -508,7 +578,7 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -520,7 +590,7 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -551,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -609,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,35 +695,55 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -667,7 +757,337 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,298 +1144,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
+++ b/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB12C4-C462-4BA7-9DC5-0C895F1AD490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571A468-C34A-462C-AF53-7B73BB78B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="1905" windowWidth="17700" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1395" windowWidth="17700" windowHeight="13260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -24,17 +24,28 @@
     <sheet name="8_" sheetId="11" r:id="rId9"/>
     <sheet name="9_" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Correct</t>
   </si>
@@ -130,6 +141,36 @@
   </si>
   <si>
     <t>The Nu number is a ratio of HT with convection to HT with no convection.  If HT with no convection is already high, then this ratio will tend to be smaller.</t>
+  </si>
+  <si>
+    <t>What is the Prandtl number for air at 1 atm and 400 degrees C?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a little practice using a material  property table.  </t>
+  </si>
+  <si>
+    <t>This is nondimensional, so it should be the same value even if you look at an imperial measurement chart</t>
+  </si>
+  <si>
+    <t>In the problem from the video, if the thermal conductivity of air was actually higher, what would happen to the Nusselt number?</t>
+  </si>
+  <si>
+    <t>It would stay the same</t>
+  </si>
+  <si>
+    <t>It would be larger</t>
+  </si>
+  <si>
+    <t>It would be smaller</t>
+  </si>
+  <si>
+    <t>You can think of this in two ways.  Mathematically, this would make Pr smaller because k is in the numerator of thermal diffusivity, and this would make Nu smaller.  Physically, this would make conduction in the fluid more effective, and so the ratio of convective HT: conductive HT (that is, the Nusselt number) would go down.</t>
+  </si>
+  <si>
+    <t>Imagine you found the Re number in the example problem to be 40,000, with the same Pr number.  Calculate the Nu number using both of the available coefficients.  How much larger is the Nu using the second equation (for 40K-400K)?</t>
+  </si>
+  <si>
+    <t>Two things to note from this: 1) Even though the coefficients look very different, the functions described by them actually meet at the transition points  2) These are mathematical models for experimental data, so they aren't meant to be perfect (otherwise, the answer to this question would be 0): you must assume a significant error (say about 10%) when using these models.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,6 +260,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +961,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,28 +973,38 @@
     <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1E-3</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,27 +1041,43 @@
     <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
@@ -1033,7 +1103,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,16 +1115,24 @@
     <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +1144,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
+++ b/3_Convection_Scaling/Embedded_Qs/nusselt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_321\Notebooks_Engr321\3_Convection_Scaling\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571A468-C34A-462C-AF53-7B73BB78B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1395" windowWidth="17700" windowHeight="13260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1395" windowWidth="17700" windowHeight="13260" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -23,8 +22,10 @@
     <sheet name="7_" sheetId="10" r:id="rId8"/>
     <sheet name="8_" sheetId="11" r:id="rId9"/>
     <sheet name="9_" sheetId="12" r:id="rId10"/>
+    <sheet name="10_" sheetId="13" r:id="rId11"/>
+    <sheet name="11_" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Correct</t>
   </si>
@@ -171,12 +172,78 @@
   </si>
   <si>
     <t>Two things to note from this: 1) Even though the coefficients look very different, the functions described by them actually meet at the transition points  2) These are mathematical models for experimental data, so they aren't meant to be perfect (otherwise, the answer to this question would be 0): you must assume a significant error (say about 10%) when using these models.</t>
+  </si>
+  <si>
+    <t>True or False: In fully developed internal flow, the the temperature profile within the flow stays the same in the axial direction (that is, along the length of the pipe).</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>The *shape* of the profile stays the same, but temperatures will actually continue to go up or down (depending on the surface condition).</t>
+  </si>
+  <si>
+    <t>The shape of the temperature profile stays the same in fully developed internal flow.   If the boundary condition is a constant positive flux (heat into the flow), what does this imply? Submit all that are true</t>
+  </si>
+  <si>
+    <t>Surface temperature is constant</t>
+  </si>
+  <si>
+    <t>Mean temperature is moving up at a constant rate</t>
+  </si>
+  <si>
+    <t>The shape of the temperature profile remains exactly the same</t>
+  </si>
+  <si>
+    <t>dT/dr at the surface is constant</t>
+  </si>
+  <si>
+    <t>If flux is constant, then the temperature gradient at the surface must remain the same.</t>
+  </si>
+  <si>
+    <t>The mean temperature is going up at a constant rate (because energy is being added to the flow).  In order for that continue to happen, the surface temperature must go up.</t>
+  </si>
+  <si>
+    <t>This is because a constant flux of energy is being added to the flow.</t>
+  </si>
+  <si>
+    <t>Not only is the mathematical shape of the profile the same, but the boundary conditions of the profile (dT/dr at the surfaces) is the same, so the profile shape stays exactly the same.</t>
+  </si>
+  <si>
+    <t>True or False: A higher Prandtl number results in a shorter thermal boundary entrance region.</t>
+  </si>
+  <si>
+    <t>A high Prandtl number implies that thermal diffusion is slower than momentum diffusion.  So the thermal boundary layer will grow more slowly, and the boundary layers from the surfaces won't meet in the center of the flow until farther into the pipe.</t>
+  </si>
+  <si>
+    <t>The equation tells us that the slope of dT/dx is equal to a constant (everything on the right hand side is constant), so the temperature will increase linearly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at equation 2 (dT/dx for a constant surface temperature) on the last slide of the video.   If the fluid temperature is initially cooler than the surface temperature , what does the equation tell us about the temperature behavior over the length of the pipe? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at equation 1 (dT/dx for a constant flux) on the last slide of the video.   If the flux is positive (into the pipe), what does the equation tell us about the temperature behavior over the length of the pipe? </t>
+  </si>
+  <si>
+    <t>The function T(x) will be a positive exponential function (increasing slowly and then more quickly)</t>
+  </si>
+  <si>
+    <t>The function T(x) will be a negative exponential function (increasing quickly and then more slowly)</t>
+  </si>
+  <si>
+    <t>The function T(x) will be linear</t>
+  </si>
+  <si>
+    <t>The function T(x) will be constant</t>
+  </si>
+  <si>
+    <t>The right hand side of the equation is not constant here: it will initially be large, but get smaller as the mean temperature approaches the surface temperature.  So the slope will be initially larger, but flatten out as the mean temp asymptotically approaches the surface temperature.  This is a negative exponential function.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,7 +645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,10 +754,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,6 +781,162 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
@@ -723,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -801,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -881,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -957,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1025,10 +1254,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1099,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1165,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,10 +1416,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,11 +1458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,34 +1474,60 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
